--- a/2des/bcd/aula03/exercicios/exercicio2.xlsx
+++ b/2des/bcd/aula03/exercicios/exercicio2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellington.martins\Desktop\github\senai2021\2des\bcd\aula04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula03\exercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4787119C-0E88-4FBC-806E-90D43B00F3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normalizar" sheetId="1" r:id="rId1"/>
@@ -29,9 +30,6 @@
     <t>id_cliente</t>
   </si>
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
     <t>Nascimento</t>
   </si>
   <si>
@@ -228,12 +226,15 @@
   </si>
   <si>
     <t>4R constante 15 15 15 15</t>
+  </si>
+  <si>
+    <t>Nome_aluno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,11 +272,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,11 +555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,34 +582,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -617,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>36668</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -652,34 +652,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>36668</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
       <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="3" t="s">
         <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -687,34 +687,34 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>36668</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -722,34 +722,34 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>36668</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -757,34 +757,34 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>36668</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
         <v>51</v>
       </c>
-      <c r="I6" t="s">
-        <v>52</v>
-      </c>
       <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
         <v>64</v>
-      </c>
-      <c r="K6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -792,34 +792,34 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>33108</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
       <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -827,34 +827,34 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
         <v>33108</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
       <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -862,34 +862,34 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
         <v>33108</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
         <v>40</v>
       </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
-      </c>
       <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" t="s">
         <v>61</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -897,34 +897,34 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <v>33108</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>47</v>
       </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
       <c r="J10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="3" t="s">
         <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -932,34 +932,34 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
         <v>33108</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
         <v>54</v>
       </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>55</v>
-      </c>
       <c r="J11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" t="s">
         <v>64</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -967,34 +967,34 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>32308</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>45.5</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
         <v>25</v>
       </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
       <c r="J12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1002,34 +1002,34 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2">
         <v>32308</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>45.5</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
         <v>33</v>
       </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
       <c r="J13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="K13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1037,34 +1037,34 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2">
         <v>32308</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>45.5</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
         <v>42</v>
       </c>
-      <c r="H14" t="s">
-        <v>43</v>
-      </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="K14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1072,34 +1072,34 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2">
         <v>32308</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>45.5</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
         <v>47</v>
       </c>
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
       <c r="J15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1107,34 +1107,34 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2">
         <v>32308</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>45.5</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
         <v>20</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>21</v>
       </c>
-      <c r="I16" t="s">
-        <v>22</v>
-      </c>
       <c r="J16" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="K16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1142,34 +1142,34 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <v>37450</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="K17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1177,34 +1177,34 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
         <v>37450</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
         <v>35</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>36</v>
       </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
       <c r="J18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="K18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1212,34 +1212,34 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
         <v>37450</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="K19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1247,34 +1247,34 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
         <v>37450</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
         <v>50</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>51</v>
       </c>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
       <c r="J20" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="K20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1282,38 +1282,38 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2">
         <v>37450</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
         <v>23</v>
       </c>
-      <c r="H21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" t="s">
-        <v>24</v>
-      </c>
       <c r="J21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="K21" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/2des/bcd/aula03/exercicios/exercicio2.xlsx
+++ b/2des/bcd/aula03/exercicios/exercicio2.xlsx
@@ -8,24 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula03\exercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4787119C-0E88-4FBC-806E-90D43B00F3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA04EA26-C41F-4F22-883C-53D2FB9DF6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normalizar" sheetId="1" r:id="rId1"/>
+    <sheet name="alunos" sheetId="2" r:id="rId2"/>
+    <sheet name="telefones" sheetId="3" r:id="rId3"/>
+    <sheet name="exercícios" sheetId="4" r:id="rId4"/>
+    <sheet name="aparelhos" sheetId="5" r:id="rId5"/>
+    <sheet name="ficha_exercicios" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="82">
   <si>
     <t>id_cliente</t>
   </si>
@@ -229,6 +244,48 @@
   </si>
   <si>
     <t>Nome_aluno</t>
+  </si>
+  <si>
+    <t>id_aluno</t>
+  </si>
+  <si>
+    <t>nome_aluno</t>
+  </si>
+  <si>
+    <t>nascimento</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>peso</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>(11)04023-4384</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (19)03086-1102</t>
+  </si>
+  <si>
+    <t>(21)74746-1126</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (19)28260-0126</t>
+  </si>
+  <si>
+    <t>descricao_exercício</t>
+  </si>
+  <si>
+    <t>id_aparelho</t>
+  </si>
+  <si>
+    <t>id_exercício</t>
+  </si>
+  <si>
+    <t>Id_exercício</t>
   </si>
 </sst>
 </file>
@@ -558,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,4 +1375,934 @@
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3B52EF-E350-4F58-922B-D817236EE700}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>36668</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>33108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>32308</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>45.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>37450</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2A81B6-A92B-415B-BC64-A3CD14F26B6E}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001CD853-3A62-42C1-85E7-1ED40693A3B6}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0624501-C41F-4786-9BB0-2984DE70B76B}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676323B8-539B-4686-B3DB-0FE1435AEE6B}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>